--- a/Base/Teams/Browns/Players Data.xlsx
+++ b/Base/Teams/Browns/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Browns/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F4F4B005D5DB92D4491727B4EAEA4577E1328631" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9DC28A-7850-48FB-84EE-E6BF2DE324BC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -104,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -487,19 +539,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -513,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -539,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +602,7 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>17</v>
@@ -559,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +619,19 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -599,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -619,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -639,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -659,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -667,19 +719,19 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -699,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -725,14 +777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -763,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -781,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -789,10 +843,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -807,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -815,10 +869,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -833,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -859,12 +913,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -879,131 +933,131 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1015,81 +1069,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
         <v>27</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Browns/Players Data.xlsx
+++ b/Base/Teams/Browns/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Browns/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F4F4B005D5DB92D4491727B4EAEA4577E1328631" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9DC28A-7850-48FB-84EE-E6BF2DE324BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -110,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +168,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,27 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,24 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,16 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -539,19 +487,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -565,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -591,7 +539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -611,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -631,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -651,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -671,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -691,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -711,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -719,19 +667,19 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -751,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -777,16 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -835,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -861,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -887,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -913,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -939,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -965,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -973,25 +919,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1017,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1043,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1069,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1095,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1103,25 +1049,25 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1147,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>

--- a/Base/Teams/Browns/Players Data.xlsx
+++ b/Base/Teams/Browns/Players Data.xlsx
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -763,16 +763,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -919,22 +919,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -945,13 +945,13 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -971,10 +971,10 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -983,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -997,10 +997,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1049,22 +1049,22 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1075,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>19</v>
@@ -1101,10 +1101,10 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Browns/Players Data.xlsx
+++ b/Base/Teams/Browns/Players Data.xlsx
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,13 +567,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -815,10 +815,10 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>7</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -919,19 +919,19 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -945,16 +945,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -971,13 +971,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1049,16 +1049,16 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1101,10 +1101,10 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
